--- a/biology/Médecine/Willem_Johan_Kolff/Willem_Johan_Kolff.xlsx
+++ b/biology/Médecine/Willem_Johan_Kolff/Willem_Johan_Kolff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Willem Johan Kolff, né le 14 février 1911 à Leyde aux Pays-Bas et mort le 11 février 2009 à Newtown Square en Pennsylvanie[1], est un médecin d'origine néerlandaise. Il est l'inventeur de l'hémodialyse. Il est également l'un des pionniers dans le développement des organes artificiels.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Willem Johan Kolff, né le 14 février 1911 à Leyde aux Pays-Bas et mort le 11 février 2009 à Newtown Square en Pennsylvanie, est un médecin d'origine néerlandaise. Il est l'inventeur de l'hémodialyse. Il est également l'un des pionniers dans le développement des organes artificiels.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a étudié la médecine dans sa ville natale à l'université de Leyde. Plus tard, il sera professeur résident à l'université de Groningue. Un de ses premiers patients fut un homme de 22 ans, souffrant d'une insuffisance rénale.
 Kolff développa un programme de remplacement d'organe par un organe artificiel et fut également à l'origine de la première banque du sang en Europe (en 1940).
@@ -545,9 +559,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Avec son épouse Janke Cornelia Kolff-Huidekoper (1913-2006), il est nommé Juste parmi les nations - à titre posthume - le 29 février 2012[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Avec son épouse Janke Cornelia Kolff-Huidekoper (1913-2006), il est nommé Juste parmi les nations - à titre posthume - le 29 février 2012</t>
         </is>
       </c>
     </row>
